--- a/プロト仕様書/エネミー.xlsx
+++ b/プロト仕様書/エネミー.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A198AB-068F-47B3-8BFE-A1E15823702A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C3FA5-854A-4C6B-8509-DD48C17EBBED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>エネミーの仕様書</t>
     <rPh sb="5" eb="8">
@@ -724,6 +724,410 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ドローンの仕様</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンの誘導の仕様</t>
+    <rPh sb="5" eb="7">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンに誘導されたときの距離をプランナーが決められるようにしておいてください</t>
+    <rPh sb="5" eb="7">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目安：マス三個分</t>
+    <rPh sb="0" eb="2">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サンコブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小型ドローンはプレイヤーがロボットを防衛ライン以外の場所に誘導したとき発射される</t>
+    <rPh sb="0" eb="2">
+      <t>コガタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ボウエイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射されるのはステージにドローンがいないとき</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンがすべて破壊されたあと再び誘導されたあと（すぐにドローンを発射するのではなく破壊されてから２０秒後）</t>
+    <rPh sb="8" eb="10">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ビョウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値の部分はプランナーが変えられるようにしておいてください</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンの発射</t>
+    <rPh sb="5" eb="7">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンの行動範囲</t>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンは二体発射される</t>
+    <rPh sb="5" eb="7">
+      <t>ニタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンの行動範囲は前後左右７マス　赤い範囲が旋回範囲　蛇行するように移動する</t>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ダコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体目</t>
+    <rPh sb="0" eb="2">
+      <t>イッタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二体目</t>
+    <rPh sb="0" eb="2">
+      <t>ニタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを見つけられる範囲は真下に向けて４５度とする</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マシタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとで角度は変えられるようにしておいてください</t>
+    <rPh sb="3" eb="5">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４５度</t>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを発見したときの処理</t>
+    <rPh sb="6" eb="8">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを発見した場合、ロボットがミサイル発射の予備動作になる</t>
+    <rPh sb="6" eb="8">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その後の処理は予備動作の処理と一緒</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンはプレイヤーを追従するようになる</t>
+    <rPh sb="11" eb="13">
+      <t>ツイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンがプレイヤーから攻撃を受けた場合</t>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃墜され消滅する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキツイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポップは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンはビーコンで打たれた場合</t>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避する。横にずれてかわすような感じ</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドローンへの攻撃方法はスナイパーとする</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備動作の処理</t>
+    <rPh sb="0" eb="4">
+      <t>ヨビドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナイパーで攻撃された場合</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度に三発発射　発射する数をいじれるようにしておいてください</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット本体には効果なし</t>
+    <rPh sb="4" eb="6">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミサイルは当たったらその場で爆発する</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バクハツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -806,7 +1210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -829,11 +1233,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -852,6 +1289,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -875,13 +1318,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>164729</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -935,13 +1378,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -995,13 +1438,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>617445</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>189220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>410136</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>35537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1055,13 +1498,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>565738</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361630</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>55867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1115,13 +1558,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>453998</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>217074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>249891</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>53787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1175,13 +1618,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>360670</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>196582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>156563</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>33295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1235,13 +1678,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>222517</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>199305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>18411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1295,13 +1738,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>75562</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>157203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>606240</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>7523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1366,13 +1809,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31215</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>565095</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>190578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1437,13 +1880,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>391726</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>143594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>242047</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>219713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1508,13 +1951,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1568,13 +2011,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>97652</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>631532</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>63232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1639,13 +2082,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1699,13 +2142,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>120064</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>653944</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>96849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1770,13 +2213,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1830,13 +2273,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590711</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>441032</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>29614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1901,13 +2344,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>210191</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>28733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1972,13 +2415,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2032,13 +2475,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>460564</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>253254</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2092,13 +2535,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>517394</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>155603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2152,13 +2595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2212,13 +2655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2272,13 +2715,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>116861</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>170490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>593111</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>7204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2332,13 +2775,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>210191</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2403,13 +2846,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>98769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>174889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2474,13 +2917,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>73959</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>589429</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>2318</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2545,13 +2988,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>40820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2605,13 +3048,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>663027</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>119622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>867215</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>191660</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2668,13 +3111,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>193583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>30296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2731,13 +3174,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>44826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2794,13 +3237,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>331694</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>230840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>589429</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>230840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2857,13 +3300,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>206346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2928,13 +3371,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>210191</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>28733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2999,13 +3442,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638735</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3062,13 +3505,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>228758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>667869</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>69554</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3133,13 +3576,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3193,13 +3636,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>661148</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3245,13 +3688,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>212914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3297,13 +3740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>222034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>224116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3378,13 +3821,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>623044</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>183934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>24730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3449,13 +3892,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3509,13 +3952,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>432546</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>186018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>118781</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>51548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3569,13 +4012,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>392205</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3632,13 +4075,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3692,13 +4135,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>173691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>677956</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>5604</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3758,13 +4201,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>291352</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3821,13 +4264,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73958</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>195140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>398930</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3892,13 +4335,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>191622</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>667871</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3943,6 +4386,1292 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>210191</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>28733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC157AF5-222D-4BC4-8A23-33EC38BF69C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12783191" y="19314057"/>
+          <a:ext cx="294074" cy="1338383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>防衛ライン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB089A7E-2E0F-40F1-BD08-633C588B41F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3877235" y="37125087"/>
+          <a:ext cx="369794" cy="291352"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224519</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557894</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>210909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矢印: 右 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59193BF-7C5F-4728-B8DB-F368ED552501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3871234" y="38249677"/>
+          <a:ext cx="387803" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594633</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>179612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>23130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矢印: 右 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55642C42-990D-4EE0-B2A3-C4CDAD5ACA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4268562" y="38089112"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163282</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>118379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496657</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矢印: 右 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8EC509-5B08-4FD1-AEDD-C1324FF65EE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4110713" y="38679663"/>
+          <a:ext cx="1147085" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493937</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389161</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>126543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矢印: 右 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3C9FFA-E8E1-4C25-9BD0-448BB4A28689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848223" y="39172239"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114297</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447672</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>87081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矢印: 右 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C76899-117F-464D-BB2F-72BF0601CF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4530498" y="38269406"/>
+          <a:ext cx="1570260" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>442230</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>163281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>337454</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>6799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矢印: 右 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E369E904-B401-4DCF-9405-545990E5898D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476873" y="37582924"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130625</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>167365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464000</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矢印: 右 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF652FB0-F6CA-4A84-8575-42890F60120A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5150299" y="38527262"/>
+          <a:ext cx="1724028" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338820</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>168727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234043</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>12245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矢印: 右 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9ADA53-14D6-444A-B8E7-A0B9CB2C193E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3332391" y="38078227"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>455840</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矢印: 右 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59F1359-CCA1-4CEC-B7EE-D91CD95C2004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2647950" y="38632039"/>
+          <a:ext cx="1269547" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137434</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>48984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>137431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矢印: 右 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BA5B3D-9168-4430-8D44-5BCFC5BEB6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2450648" y="39183127"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485777</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>234040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矢印: 右 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B714CE-209F-4603-BB6F-3061F5FA08F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1848533" y="38417725"/>
+          <a:ext cx="1567541" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232684</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>103413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127908</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>191859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矢印: 右 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF055E5-33B8-4ABD-8915-96B504DAA9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1865541" y="37767984"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>148318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>512989</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>193222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矢印: 右 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD6D3CB-5D9D-4864-B931-F99CF638926B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1344385" y="38525904"/>
+          <a:ext cx="1269547" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>643617</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="矢印: 右 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45492D8-33D7-402A-9EBE-E1770559D8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="68036" y="41243250"/>
+          <a:ext cx="575581" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129265</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>153756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24489</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>6799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="矢印: 右 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9F898B-119C-41FD-B520-5BA356112E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129265" y="41737185"/>
+          <a:ext cx="575581" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF3CBE6-AFD2-4F27-A2C7-3DB9A4D7005E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639536" y="43148250"/>
+          <a:ext cx="1238250" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CB77E5-3F8C-43F4-9D6E-6CF8E7C9AC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="353785" y="43406785"/>
+          <a:ext cx="680357" cy="2313214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>778329</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32639430-2735-4D93-B5A3-2089E51E4B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1458686" y="43395900"/>
+          <a:ext cx="732064" cy="2337707"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>205870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B264026-A042-4A71-9BC7-672BADBC97E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1932214" y="43175464"/>
+          <a:ext cx="748393" cy="328335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドローン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4214,10 +5943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W133"/>
+  <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4320,152 +6049,128 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24">
-      <c r="A24" s="10" t="s">
-        <v>19</v>
+    <row r="24" spans="1:23">
+      <c r="A24" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="24">
+      <c r="A27" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="1"/>
-      <c r="S29" s="3"/>
-      <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="R31" s="2"/>
       <c r="S31" s="3"/>
       <c r="W31" s="1"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="R32" s="2"/>
       <c r="S32" s="3"/>
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1"/>
-      <c r="M34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="5"/>
+      <c r="A35" s="1"/>
       <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="F35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="R35" s="2"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="K36" s="2"/>
       <c r="M36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="S36" s="3"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -4473,11 +6178,6 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
       <c r="M37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4487,235 +6187,240 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="1"/>
-      <c r="B38" s="6"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="A38" s="5"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="R38" s="2"/>
       <c r="S38" s="3"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="1"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="S39" s="3"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="S40" s="3"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="5"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="K41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="S42" s="7"/>
+      <c r="D42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="R43" s="2"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="S45" s="7"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="1"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" s="1"/>
-      <c r="S50" s="3"/>
-      <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="4"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" s="1"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="4"/>
-      <c r="F52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="R52" s="2"/>
       <c r="S52" s="3"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="R53" s="2"/>
       <c r="S53" s="3"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" s="1"/>
-      <c r="M55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="R55" s="2"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
-      <c r="A56" s="5"/>
+      <c r="A56" s="1"/>
       <c r="C56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="F56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="R56" s="2"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" s="1"/>
-      <c r="C57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="K57" s="2"/>
       <c r="M57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="R57" s="2"/>
       <c r="S57" s="3"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -4723,11 +6428,6 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
       <c r="M58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4737,270 +6437,269 @@
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
-      <c r="A59" s="1"/>
-      <c r="B59" s="6"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="A59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="R59" s="2"/>
       <c r="S59" s="3"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" s="1"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="S60" s="3"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="R61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
       <c r="S61" s="3"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="5"/>
-      <c r="I62" s="2"/>
+      <c r="B62" s="6"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
       <c r="K62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="3"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="S63" s="7"/>
+      <c r="D63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="3"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="1"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="R64" s="2"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
       <c r="W64" s="1"/>
     </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="5"/>
+      <c r="I65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="3"/>
+      <c r="W65" s="1"/>
+    </row>
     <row r="66" spans="1:23">
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>10</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="S66" s="7"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="1"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="1"/>
     </row>
     <row r="69" spans="1:23">
       <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="C72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
-      <c r="A70" t="s">
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="24">
-      <c r="A75" s="10" t="s">
+    <row r="78" spans="1:23" ht="24">
+      <c r="A78" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="A77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="S77" s="3"/>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" s="1"/>
-      <c r="S78" s="3"/>
-      <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" s="1"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="4"/>
-      <c r="F79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="3"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" s="1"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="4"/>
-      <c r="F80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="R80" s="2"/>
       <c r="S80" s="3"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" s="1"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="R81" s="2"/>
       <c r="S81" s="3"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
-      <c r="A82" s="13"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="15"/>
+      <c r="A82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="M83" s="2"/>
+      <c r="A83" s="1"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="F83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+      <c r="R83" s="2"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
-      <c r="A84" s="13"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="13"/>
+      <c r="A84" s="1"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="F84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="R84" s="2"/>
       <c r="S84" s="3"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
-      <c r="A85" s="1"/>
-      <c r="C85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="J85" s="2"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="15"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="K85" s="2"/>
       <c r="M85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="R85" s="2"/>
       <c r="S85" s="3"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
-      <c r="A86" s="1"/>
-      <c r="C86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
       <c r="M86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -5010,169 +6709,184 @@
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
-      <c r="A87" s="1"/>
-      <c r="B87" s="6"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="R87" s="2"/>
       <c r="S87" s="3"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" s="1"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="M88" s="2"/>
       <c r="S88" s="3"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="K89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="R89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
       <c r="S89" s="3"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="5"/>
-      <c r="I90" s="2"/>
+      <c r="B90" s="6"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
       <c r="K90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="3"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="S91" s="7"/>
+      <c r="D91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="3"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" s="1"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="R92" s="2"/>
       <c r="S92" s="3"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="5"/>
+      <c r="I93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="3"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="S94" s="7"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="1"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I93" s="16"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="A94" t="s">
+      <c r="I96" s="16"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" t="s">
         <v>48</v>
       </c>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="A95" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" s="5"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="5"/>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="I96" s="5"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="5"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
       <c r="M97" s="5"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
       <c r="M99" s="5"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" t="s">
-        <v>35</v>
+      <c r="A100" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
       <c r="M100" s="5"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -5182,7 +6896,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -5190,50 +6904,501 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+    </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="B105" s="9"/>
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>41</v>
       </c>
-      <c r="D110" t="s">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23">
+      <c r="A152" s="1"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="S152" s="3"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23">
+      <c r="A153" s="1"/>
+      <c r="S153" s="3"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23">
+      <c r="A154" s="1"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="3"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23">
+      <c r="A155" s="1"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="3"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23">
+      <c r="A156" s="1"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="K156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="3"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23">
+      <c r="A157" s="18"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="K157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23">
+      <c r="A158" s="17"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="21"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="M158" s="2"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23">
+      <c r="A159" s="19"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23">
+      <c r="A160" s="1"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23">
+      <c r="A161" s="1"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="M161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23">
+      <c r="A162" s="1"/>
+      <c r="B162" s="6"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="K162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="3"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163" s="1"/>
+      <c r="D163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="3"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="3"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="5"/>
+      <c r="I165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="3"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="S166" s="7"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="A167" s="1"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="3"/>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="8"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="169" spans="1:23">
+      <c r="B169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
+      <c r="B171" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
+      <c r="A174" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="B182" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
